--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,31; 48,99</t>
+          <t>33,31; 50,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 49,82</t>
+          <t>35,5; 49,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,25; 47,07</t>
+          <t>36,48; 47,81</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,82; 51,49</t>
+          <t>39,19; 51,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,74; 45,56</t>
+          <t>33,81; 45,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,51; 46,04</t>
+          <t>38,0; 46,5</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,5; 42,88</t>
+          <t>34,57; 43,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,0; 39,38</t>
+          <t>30,18; 39,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,75; 40,21</t>
+          <t>33,79; 39,87</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,68; 40,9</t>
+          <t>28,2; 40,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 46,54</t>
+          <t>39,97; 46,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,74; 42,8</t>
+          <t>35,04; 42,93</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,55; 45,16</t>
+          <t>37,58; 45,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,39; 48,67</t>
+          <t>42,19; 48,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,91; 45,65</t>
+          <t>40,59; 45,67</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,93; 47,16</t>
+          <t>40,83; 47,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,48; 41,55</t>
+          <t>25,19; 41,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,33; 43,05</t>
+          <t>30,11; 42,98</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,34; 42,7</t>
+          <t>38,36; 42,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,27; 41,99</t>
+          <t>35,64; 41,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,89; 41,71</t>
+          <t>37,75; 41,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,31; 50,1</t>
+          <t>33,31; 48,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,5; 49,52</t>
+          <t>34,82; 49,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,48; 47,81</t>
+          <t>36,25; 47,07</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,19; 51,24</t>
+          <t>38,82; 51,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 45,44</t>
+          <t>33,74; 45,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,0; 46,5</t>
+          <t>37,51; 46,04</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,57; 43,35</t>
+          <t>34,5; 42,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,18; 39,12</t>
+          <t>29,0; 39,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,79; 39,87</t>
+          <t>33,75; 40,21</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,2; 40,6</t>
+          <t>27,68; 40,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 46,86</t>
+          <t>39,97; 46,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,04; 42,93</t>
+          <t>35,74; 42,8</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,58; 45,29</t>
+          <t>37,55; 45,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,19; 48,53</t>
+          <t>42,39; 48,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,59; 45,67</t>
+          <t>40,91; 45,65</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,83; 47,32</t>
+          <t>40,93; 47,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,19; 41,94</t>
+          <t>26,48; 41,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,11; 42,98</t>
+          <t>31,33; 43,05</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,36; 42,86</t>
+          <t>38,34; 42,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,78</t>
+          <t>36,27; 41,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,75; 41,79</t>
+          <t>37,89; 41,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +492,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,85 +506,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,20 +542,11 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>41,26%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,6%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>41,91%</t>
+          <t>37,89%</t>
         </is>
       </c>
     </row>
@@ -724,69 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,49; 44,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>32,29; 47,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>33,31; 48,99</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>34,82; 49,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>36,25; 47,07</t>
+          <t>32,49; 43,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>45,3%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>38,83%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>41,82%</t>
+          <t>43,28%</t>
         </is>
       </c>
     </row>
@@ -864,69 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>36,58; 49,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,4; 64,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>38,82; 51,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,74; 45,56</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>37,51; 46,04</t>
+          <t>36,89; 57,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>38,62%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>36,91%</t>
+          <t>34,52%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>32,57; 40,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>23,49; 37,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>34,5; 42,88</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>29,0; 39,38</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>33,75; 40,21</t>
+          <t>29,03; 37,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>36,15%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>43,34%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>39,8%</t>
+          <t>32,97%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,04; 38,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>34,26; 44,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>27,68; 40,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,32</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,97; 46,54</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>35,74; 42,8</t>
+          <t>19,85; 40,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>41,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>45,32%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>43,26%</t>
+          <t>41,98%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>36,26; 43,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>40,9; 47,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>37,55; 45,16</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>42,39; 48,67</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>40,91; 45,65</t>
+          <t>39,12; 44,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>44,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>36,46%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>39,56%</t>
+          <t>32,29%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>38,06; 46,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>9,61; 40,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>40,93; 47,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26,48; 41,55</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>31,33; 43,05</t>
+          <t>14,92; 41,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>40,82%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>39,88%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>40,32%</t>
+          <t>41,57%</t>
         </is>
       </c>
     </row>
@@ -1564,84 +879,87 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,82; 48,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,85; 43,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>38,34; 42,7</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>36,27; 41,99</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>37,89; 41,71</t>
+          <t>38,69; 44,64</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37,81%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28,4; 39,99</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31,75; 41,44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32,19; 39,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,49; 44,39</t>
+          <t>28,54; 44,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,29; 47,05</t>
+          <t>32,94; 47,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,49; 43,27</t>
+          <t>32,46; 43,24</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,58; 49,1</t>
+          <t>36,85; 48,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 64,15</t>
+          <t>33,91; 65,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,89; 57,16</t>
+          <t>37,58; 56,68</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,57; 40,97</t>
+          <t>32,38; 40,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 37,1</t>
+          <t>24,24; 36,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,03; 37,47</t>
+          <t>29,62; 37,41</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 38,45</t>
+          <t>13,14; 38,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,26; 44,21</t>
+          <t>34,5; 44,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 40,0</t>
+          <t>18,73; 39,81</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,26; 43,82</t>
+          <t>35,88; 43,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,9; 47,23</t>
+          <t>41,1; 47,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,12; 44,45</t>
+          <t>39,22; 44,59</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,06; 46,66</t>
+          <t>38,39; 46,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 40,34</t>
+          <t>10,96; 40,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,92; 41,78</t>
+          <t>18,54; 41,85</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,82; 48,32</t>
+          <t>39,0; 48,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,85; 43,8</t>
+          <t>37,04; 43,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,69; 44,64</t>
+          <t>38,95; 44,15</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,4; 39,99</t>
+          <t>28,03; 39,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,75; 41,44</t>
+          <t>30,37; 41,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,19; 39,79</t>
+          <t>32,27; 39,85</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas de temperatura en la vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>145353</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124889</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>270242</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>114167; 178832</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>103153; 148579</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>231486; 308364</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>181070</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>223834</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>404904</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>156062; 206232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>173642; 337332</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>351649; 530354</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>196810</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>192720</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>389530</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>173642; 217691</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>143506; 218646</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>334186; 422107</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>238055</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>289731</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>527786</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>116650; 340936</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>245929; 315897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>299778; 637250</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>223830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>241797</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>465626</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>201384; 244987</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>225179; 259409</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>435010; 494548</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>156581</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>158752</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>315333</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>141323; 171077</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66707; 244491</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>181094; 408640</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122816</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>171767</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>294582</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>110272; 136665</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>157748; 187097</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>275999; 312846</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3553</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1264515</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1403489</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2668004</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>969935; 1380426</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1127339; 1534209</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2314614; 2858358</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>